--- a/Entrega_TF/Grupo5/Universidades_G5.xlsx
+++ b/Entrega_TF/Grupo5/Universidades_G5.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>('Universidad Nacional Daniel Alcides Carrión, Pasco, Pasco', -10.4906049, -76.5147884)</t>
+          <t>('Universidad Nacional Daniel Alcides Carrión, Pasco, Pasco', -10.4475753, -75.1545381)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>-10.4906049</v>
+        <v>-10.4475753</v>
       </c>
       <c r="P19" t="n">
-        <v>-76.5147884</v>
+        <v>-75.1545381</v>
       </c>
     </row>
     <row r="20">
